--- a/biology/Zoologie/Gryposaurus_monumentensis/Gryposaurus_monumentensis.xlsx
+++ b/biology/Zoologie/Gryposaurus_monumentensis/Gryposaurus_monumentensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gryposaurus monumentensis est une espèce éteinte de dinosaures ornithopodes de la famille des hadrosauridés. Un fossile de cette espèce a été trouvé en Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>La tête</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce dinosaure a un bec et 800 dents au plus.
 </t>
@@ -542,7 +556,9 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce dinosaure mangeait des végétaux.
 </t>
@@ -573,7 +589,9 @@
           <t>Époque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vivait il y a environ 73 millions d'années, c'est-à-dire pendant le Crétacé supérieur (étage Campanien), soit environ 10 millions d'années avant l'extinction du Crétacé qui a fait disparaître les derniers dinosaures non-aviens.
 </t>
